--- a/data/poas/poas20.xlsx
+++ b/data/poas/poas20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaime/Desktop/poas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB5D696-C2CD-5841-8EDB-C71F3DAE4D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6E9BF9-0BEE-AA40-8213-3830251B5507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="21100" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,12 +288,6 @@
     <t>APFT FAILURE</t>
   </si>
   <si>
-    <t xml:space="preserve">NON-SELECT </t>
-  </si>
-  <si>
-    <t>SELECT</t>
-  </si>
-  <si>
     <t>ADMIN</t>
   </si>
   <si>
@@ -304,9 +298,6 @@
   </si>
   <si>
     <t>VOLUNTARY WITHDRAWAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT </t>
   </si>
   <si>
     <t>SEL</t>
@@ -372,9 +363,6 @@
     <t>89A</t>
   </si>
   <si>
-    <t>NON-SELECT</t>
-  </si>
-  <si>
     <t>46S</t>
   </si>
   <si>
@@ -420,16 +408,10 @@
     <t>INVOLUNTARY WITHDRAW</t>
   </si>
   <si>
-    <t>BOARD NON-SELECT</t>
-  </si>
-  <si>
     <t>VOLUNTARY WITHDRAW</t>
   </si>
   <si>
     <t>94R</t>
-  </si>
-  <si>
-    <t>NONSELECT</t>
   </si>
   <si>
     <t>SELECTED</t>
@@ -460,6 +442,24 @@
   </si>
   <si>
     <t>SEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NON-SELECTED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECTED </t>
+  </si>
+  <si>
+    <t>NON-SELECTED</t>
+  </si>
+  <si>
+    <t>BOARD NON-SELECTED</t>
+  </si>
+  <si>
+    <t>NONSELECTED</t>
+  </si>
+  <si>
+    <t>SELECTEDED</t>
   </si>
 </sst>
 </file>
@@ -9781,7 +9781,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -9894,10 +9894,10 @@
         <v>23</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -9959,10 +9959,10 @@
         <v>23</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U3" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10024,10 +10024,10 @@
         <v>23</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10089,10 +10089,10 @@
         <v>22</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U5" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10154,10 +10154,10 @@
         <v>22</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10219,10 +10219,10 @@
         <v>22</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U7" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10284,10 +10284,10 @@
         <v>23</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10349,10 +10349,10 @@
         <v>23</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10414,10 +10414,10 @@
         <v>23</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10479,10 +10479,10 @@
         <v>22</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U11" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10544,10 +10544,10 @@
         <v>22</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U12" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10609,10 +10609,10 @@
         <v>23</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U13" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10674,10 +10674,10 @@
         <v>22</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10739,10 +10739,10 @@
         <v>23</v>
       </c>
       <c r="T15" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U15" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10869,10 +10869,10 @@
         <v>23</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U17" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10934,10 +10934,10 @@
         <v>22</v>
       </c>
       <c r="T18" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U18" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -10999,10 +10999,10 @@
         <v>23</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U19" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11064,10 +11064,10 @@
         <v>23</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U20" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11129,10 +11129,10 @@
         <v>23</v>
       </c>
       <c r="T21" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U21" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11259,10 +11259,10 @@
         <v>23</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U23" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11324,10 +11324,10 @@
         <v>23</v>
       </c>
       <c r="T24" s="16" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U24" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11389,10 +11389,10 @@
         <v>23</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U25" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11454,10 +11454,10 @@
         <v>23</v>
       </c>
       <c r="T26" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U26" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11519,10 +11519,10 @@
         <v>23</v>
       </c>
       <c r="T27" s="16" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U27" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11779,10 +11779,10 @@
         <v>22</v>
       </c>
       <c r="T31" s="16" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U31" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11844,10 +11844,10 @@
         <v>22</v>
       </c>
       <c r="T32" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U32" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11909,10 +11909,10 @@
         <v>23</v>
       </c>
       <c r="T33" s="16" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U33" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11974,10 +11974,10 @@
         <v>23</v>
       </c>
       <c r="T34" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U34" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12104,10 +12104,10 @@
         <v>22</v>
       </c>
       <c r="T36" s="16" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12169,10 +12169,10 @@
         <v>23</v>
       </c>
       <c r="T37" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U37" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12234,10 +12234,10 @@
         <v>22</v>
       </c>
       <c r="T38" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U38" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12299,10 +12299,10 @@
         <v>22</v>
       </c>
       <c r="T39" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U39" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12364,10 +12364,10 @@
         <v>22</v>
       </c>
       <c r="T40" s="16" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U40" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12429,10 +12429,10 @@
         <v>23</v>
       </c>
       <c r="T41" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U41" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12494,10 +12494,10 @@
         <v>22</v>
       </c>
       <c r="T42" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U42" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12559,10 +12559,10 @@
         <v>23</v>
       </c>
       <c r="T43" s="16" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U43" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12624,10 +12624,10 @@
         <v>22</v>
       </c>
       <c r="T44" s="16" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U44" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12754,10 +12754,10 @@
         <v>23</v>
       </c>
       <c r="T46" s="16" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="U46" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12819,10 +12819,10 @@
         <v>23</v>
       </c>
       <c r="T47" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U47" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12884,10 +12884,10 @@
         <v>22</v>
       </c>
       <c r="T48" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U48" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -12949,10 +12949,10 @@
         <v>22</v>
       </c>
       <c r="T49" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U49" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13014,10 +13014,10 @@
         <v>22</v>
       </c>
       <c r="T50" s="16" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U50" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13079,10 +13079,10 @@
         <v>22</v>
       </c>
       <c r="T51" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U51" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13144,10 +13144,10 @@
         <v>23</v>
       </c>
       <c r="T52" s="16" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U52" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13209,10 +13209,10 @@
         <v>22</v>
       </c>
       <c r="T53" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U53" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13274,10 +13274,10 @@
         <v>22</v>
       </c>
       <c r="T54" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U54" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13339,10 +13339,10 @@
         <v>22</v>
       </c>
       <c r="T55" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U55" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13404,10 +13404,10 @@
         <v>22</v>
       </c>
       <c r="T56" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U56" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13469,10 +13469,10 @@
         <v>22</v>
       </c>
       <c r="T57" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U57" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13534,10 +13534,10 @@
         <v>23</v>
       </c>
       <c r="T58" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U58" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13599,10 +13599,10 @@
         <v>22</v>
       </c>
       <c r="T59" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U59" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13729,10 +13729,10 @@
         <v>23</v>
       </c>
       <c r="T61" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U61" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13794,10 +13794,10 @@
         <v>22</v>
       </c>
       <c r="T62" s="16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U62" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13859,10 +13859,10 @@
         <v>23</v>
       </c>
       <c r="T63" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U63" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13873,7 +13873,7 @@
         <v>25</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>22</v>
@@ -13924,10 +13924,10 @@
         <v>22</v>
       </c>
       <c r="T64" s="19" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U64" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -13989,10 +13989,10 @@
         <v>23</v>
       </c>
       <c r="T65" s="19" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U65" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14054,15 +14054,15 @@
         <v>22</v>
       </c>
       <c r="T66" s="4" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="U66" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>40</v>
@@ -14198,7 +14198,7 @@
         <v>25</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>22</v>
@@ -14314,15 +14314,15 @@
         <v>23</v>
       </c>
       <c r="T70" s="19" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U70" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>40</v>
@@ -14444,10 +14444,10 @@
         <v>22</v>
       </c>
       <c r="T72" s="19" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U72" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14574,10 +14574,10 @@
         <v>22</v>
       </c>
       <c r="T74" s="4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14588,7 +14588,7 @@
         <v>40</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>22</v>
@@ -14647,7 +14647,7 @@
     </row>
     <row r="76" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>40</v>
@@ -14704,10 +14704,10 @@
         <v>22</v>
       </c>
       <c r="T76" s="4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U76" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14769,10 +14769,10 @@
         <v>22</v>
       </c>
       <c r="T77" s="4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U77" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14834,10 +14834,10 @@
         <v>23</v>
       </c>
       <c r="T78" s="4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U78" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14848,7 +14848,7 @@
         <v>46</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D79" s="13" t="s">
         <v>22</v>
@@ -14899,10 +14899,10 @@
         <v>22</v>
       </c>
       <c r="T79" s="4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U79" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -14940,7 +14940,7 @@
         <v>30</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M80" s="12">
         <v>109</v>
@@ -15043,7 +15043,7 @@
         <v>40</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D82" s="13" t="s">
         <v>23</v>
@@ -15094,10 +15094,10 @@
         <v>22</v>
       </c>
       <c r="T82" s="4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U82" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15159,10 +15159,10 @@
         <v>23</v>
       </c>
       <c r="T83" s="19" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U83" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15224,10 +15224,10 @@
         <v>22</v>
       </c>
       <c r="T84" s="4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U84" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15289,10 +15289,10 @@
         <v>23</v>
       </c>
       <c r="T85" s="19" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U85" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15354,10 +15354,10 @@
         <v>23</v>
       </c>
       <c r="T86" s="4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U86" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15419,10 +15419,10 @@
         <v>23</v>
       </c>
       <c r="T87" s="19" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U87" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15484,10 +15484,10 @@
         <v>23</v>
       </c>
       <c r="T88" s="4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U88" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15525,7 +15525,7 @@
         <v>24</v>
       </c>
       <c r="L89" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M89" s="12">
         <v>111</v>
@@ -15549,10 +15549,10 @@
         <v>23</v>
       </c>
       <c r="T89" s="4" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U89" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15614,10 +15614,10 @@
         <v>23</v>
       </c>
       <c r="T90" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U90" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15679,10 +15679,10 @@
         <v>22</v>
       </c>
       <c r="T91" s="19" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U91" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15693,7 +15693,7 @@
         <v>40</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D92" s="13" t="s">
         <v>22</v>
@@ -15744,10 +15744,10 @@
         <v>23</v>
       </c>
       <c r="T92" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U92" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15758,7 +15758,7 @@
         <v>40</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D93" s="13" t="s">
         <v>22</v>
@@ -15809,10 +15809,10 @@
         <v>23</v>
       </c>
       <c r="T93" s="19" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U93" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15874,10 +15874,10 @@
         <v>23</v>
       </c>
       <c r="T94" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U94" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15888,7 +15888,7 @@
         <v>40</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D95" s="13" t="s">
         <v>22</v>
@@ -16004,10 +16004,10 @@
         <v>22</v>
       </c>
       <c r="T96" s="19" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U96" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16069,10 +16069,10 @@
         <v>22</v>
       </c>
       <c r="T97" s="19" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U97" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16083,7 +16083,7 @@
         <v>40</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D98" s="13" t="s">
         <v>22</v>
@@ -16110,7 +16110,7 @@
         <v>19</v>
       </c>
       <c r="L98" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M98" s="12">
         <v>115</v>
@@ -16199,10 +16199,10 @@
         <v>22</v>
       </c>
       <c r="T99" s="19" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U99" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16329,10 +16329,10 @@
         <v>23</v>
       </c>
       <c r="T101" s="19" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U101" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16394,10 +16394,10 @@
         <v>23</v>
       </c>
       <c r="T102" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U102" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16459,10 +16459,10 @@
         <v>23</v>
       </c>
       <c r="T103" s="19" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="U103" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16654,10 +16654,10 @@
         <v>23</v>
       </c>
       <c r="T106" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U106" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -16719,10 +16719,10 @@
         <v>22</v>
       </c>
       <c r="T107" s="19" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U107" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16760,7 +16760,7 @@
         <v>27</v>
       </c>
       <c r="L108" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M108" s="20">
         <v>111</v>
@@ -16784,15 +16784,15 @@
         <v>23</v>
       </c>
       <c r="T108" s="6" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U108" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B109" s="17" t="s">
         <v>40</v>
@@ -16849,10 +16849,10 @@
         <v>23</v>
       </c>
       <c r="T109" s="6" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U109" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16863,7 +16863,7 @@
         <v>40</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D110" s="17" t="s">
         <v>22</v>
@@ -16914,10 +16914,10 @@
         <v>23</v>
       </c>
       <c r="T110" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U110" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16928,7 +16928,7 @@
         <v>40</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>22</v>
@@ -16979,7 +16979,7 @@
         <v>23</v>
       </c>
       <c r="T111" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U111" s="13" t="s">
         <v>80</v>
@@ -16993,7 +16993,7 @@
         <v>40</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D112" s="17" t="s">
         <v>22</v>
@@ -17044,10 +17044,10 @@
         <v>23</v>
       </c>
       <c r="T112" s="6" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="U112" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17109,10 +17109,10 @@
         <v>23</v>
       </c>
       <c r="T113" s="6" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U113" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17174,10 +17174,10 @@
         <v>23</v>
       </c>
       <c r="T114" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U114" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17188,7 +17188,7 @@
         <v>40</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D115" s="17" t="s">
         <v>22</v>
@@ -17239,10 +17239,10 @@
         <v>23</v>
       </c>
       <c r="T115" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U115" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17253,7 +17253,7 @@
         <v>40</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D116" s="17" t="s">
         <v>22</v>
@@ -17304,7 +17304,7 @@
         <v>23</v>
       </c>
       <c r="T116" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="U116" s="13" t="s">
         <v>80</v>
@@ -17369,10 +17369,10 @@
         <v>23</v>
       </c>
       <c r="T117" s="6" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U117" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17434,10 +17434,10 @@
         <v>23</v>
       </c>
       <c r="T118" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U118" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17499,10 +17499,10 @@
         <v>23</v>
       </c>
       <c r="T119" s="6" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U119" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17564,10 +17564,10 @@
         <v>23</v>
       </c>
       <c r="T120" s="6" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U120" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="121" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17578,7 +17578,7 @@
         <v>25</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D121" s="17" t="s">
         <v>22</v>
@@ -17605,7 +17605,7 @@
         <v>22</v>
       </c>
       <c r="L121" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M121" s="20">
         <v>115</v>
@@ -17629,10 +17629,10 @@
         <v>23</v>
       </c>
       <c r="T121" s="6" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="U121" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="122" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17694,10 +17694,10 @@
         <v>23</v>
       </c>
       <c r="T122" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U122" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="123" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17735,7 +17735,7 @@
         <v>28</v>
       </c>
       <c r="L123" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M123" s="20">
         <v>114</v>
@@ -17759,10 +17759,10 @@
         <v>23</v>
       </c>
       <c r="T123" s="6" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U123" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17773,7 +17773,7 @@
         <v>40</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D124" s="17" t="s">
         <v>22</v>
@@ -17824,10 +17824,10 @@
         <v>23</v>
       </c>
       <c r="T124" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U124" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17889,10 +17889,10 @@
         <v>23</v>
       </c>
       <c r="T125" s="6" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U125" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="126" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17954,10 +17954,10 @@
         <v>23</v>
       </c>
       <c r="T126" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U126" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18019,10 +18019,10 @@
         <v>23</v>
       </c>
       <c r="T127" s="6" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U127" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18084,10 +18084,10 @@
         <v>23</v>
       </c>
       <c r="T128" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="U128" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18149,10 +18149,10 @@
         <v>22</v>
       </c>
       <c r="T129" s="11" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="U129" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="130" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18163,7 +18163,7 @@
         <v>25</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D130" s="13" t="s">
         <v>22</v>
@@ -18214,10 +18214,10 @@
         <v>22</v>
       </c>
       <c r="T130" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="U130" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18228,7 +18228,7 @@
         <v>40</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D131" s="13" t="s">
         <v>22</v>
@@ -18279,10 +18279,10 @@
         <v>23</v>
       </c>
       <c r="T131" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="U131" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="132" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18344,10 +18344,10 @@
         <v>22</v>
       </c>
       <c r="T132" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="U132" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18409,10 +18409,10 @@
         <v>22</v>
       </c>
       <c r="T133" s="11" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U133" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="134" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18474,10 +18474,10 @@
         <v>22</v>
       </c>
       <c r="T134" s="11" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="U134" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18488,7 +18488,7 @@
         <v>40</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D135" s="13" t="s">
         <v>22</v>
@@ -18539,10 +18539,10 @@
         <v>22</v>
       </c>
       <c r="T135" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="U135" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18553,7 +18553,7 @@
         <v>46</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D136" s="13" t="s">
         <v>22</v>
@@ -18669,10 +18669,10 @@
         <v>22</v>
       </c>
       <c r="T137" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="U137" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18734,15 +18734,15 @@
         <v>23</v>
       </c>
       <c r="T138" s="11" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U138" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="139" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B139" s="13" t="s">
         <v>40</v>
@@ -18905,7 +18905,7 @@
         <v>30</v>
       </c>
       <c r="L141" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M141" s="12">
         <v>109</v>
@@ -18929,10 +18929,10 @@
         <v>22</v>
       </c>
       <c r="T141" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="U141" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -18943,7 +18943,7 @@
         <v>40</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D142" s="13" t="s">
         <v>22</v>
@@ -19008,7 +19008,7 @@
         <v>25</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D143" s="13" t="s">
         <v>22</v>
@@ -19059,10 +19059,10 @@
         <v>22</v>
       </c>
       <c r="T143" s="11" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="U143" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="144" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19124,10 +19124,10 @@
         <v>22</v>
       </c>
       <c r="T144" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="U144" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="145" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19189,10 +19189,10 @@
         <v>22</v>
       </c>
       <c r="T145" s="11" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U145" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="146" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19203,7 +19203,7 @@
         <v>40</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D146" s="13" t="s">
         <v>23</v>
@@ -19254,10 +19254,10 @@
         <v>22</v>
       </c>
       <c r="T146" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="U146" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="147" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19319,10 +19319,10 @@
         <v>23</v>
       </c>
       <c r="T147" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="U147" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="148" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19333,7 +19333,7 @@
         <v>40</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D148" s="13" t="s">
         <v>23</v>
@@ -19384,10 +19384,10 @@
         <v>23</v>
       </c>
       <c r="T148" s="11" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="U148" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="149" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19449,10 +19449,10 @@
         <v>22</v>
       </c>
       <c r="T149" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="U149" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19463,7 +19463,7 @@
         <v>40</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D150" s="13" t="s">
         <v>22</v>
@@ -19514,10 +19514,10 @@
         <v>22</v>
       </c>
       <c r="T150" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="U150" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="151" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19579,10 +19579,10 @@
         <v>22</v>
       </c>
       <c r="T151" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="U151" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="152" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19644,10 +19644,10 @@
         <v>22</v>
       </c>
       <c r="T152" s="11" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U152" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="153" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19774,10 +19774,10 @@
         <v>23</v>
       </c>
       <c r="T154" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="U154" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="155" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19853,7 +19853,7 @@
         <v>40</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D156" s="13" t="s">
         <v>23</v>
@@ -19904,10 +19904,10 @@
         <v>22</v>
       </c>
       <c r="T156" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="U156" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="157" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -19918,7 +19918,7 @@
         <v>40</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D157" s="13" t="s">
         <v>22</v>
@@ -19969,10 +19969,10 @@
         <v>22</v>
       </c>
       <c r="T157" s="11" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U157" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="158" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20034,10 +20034,10 @@
         <v>22</v>
       </c>
       <c r="T158" s="11" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="U158" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="159" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20099,10 +20099,10 @@
         <v>23</v>
       </c>
       <c r="T159" s="11" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="U159" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="160" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20113,7 +20113,7 @@
         <v>40</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D160" s="13" t="s">
         <v>22</v>
@@ -20164,10 +20164,10 @@
         <v>22</v>
       </c>
       <c r="T160" s="13" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U160" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="161" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20243,7 +20243,7 @@
         <v>40</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D162" s="13" t="s">
         <v>22</v>
@@ -20294,10 +20294,10 @@
         <v>22</v>
       </c>
       <c r="T162" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U162" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="163" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20359,10 +20359,10 @@
         <v>22</v>
       </c>
       <c r="T163" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U163" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="164" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20489,10 +20489,10 @@
         <v>23</v>
       </c>
       <c r="T165" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U165" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="166" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20619,10 +20619,10 @@
         <v>23</v>
       </c>
       <c r="T167" s="13" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U167" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="168" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20684,10 +20684,10 @@
         <v>22</v>
       </c>
       <c r="T168" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="U168" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="169" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20749,10 +20749,10 @@
         <v>23</v>
       </c>
       <c r="T169" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U169" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="170" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20763,7 +20763,7 @@
         <v>46</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D170" s="13" t="s">
         <v>22</v>
@@ -20814,10 +20814,10 @@
         <v>23</v>
       </c>
       <c r="T170" s="13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="U170" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="171" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -20828,7 +20828,7 @@
         <v>40</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D171" s="13" t="s">
         <v>22</v>
@@ -20944,10 +20944,10 @@
         <v>23</v>
       </c>
       <c r="T172" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U172" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="173" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21023,7 +21023,7 @@
         <v>40</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D174" s="13" t="s">
         <v>22</v>
@@ -21074,10 +21074,10 @@
         <v>22</v>
       </c>
       <c r="T174" s="13" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U174" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="175" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21139,10 +21139,10 @@
         <v>23</v>
       </c>
       <c r="T175" s="13" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="U175" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="176" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21218,7 +21218,7 @@
         <v>46</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D177" s="13" t="s">
         <v>22</v>
@@ -21269,10 +21269,10 @@
         <v>23</v>
       </c>
       <c r="T177" s="13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="U177" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="178" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21283,7 +21283,7 @@
         <v>40</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D178" s="13" t="s">
         <v>23</v>
@@ -21413,7 +21413,7 @@
         <v>46</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D180" s="13" t="s">
         <v>22</v>
@@ -21659,10 +21659,10 @@
         <v>23</v>
       </c>
       <c r="T183" s="13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="U183" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="184" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21789,10 +21789,10 @@
         <v>23</v>
       </c>
       <c r="T185" s="13" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="U185" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="186" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21854,10 +21854,10 @@
         <v>23</v>
       </c>
       <c r="T186" s="13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="U186" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="187" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21919,10 +21919,10 @@
         <v>23</v>
       </c>
       <c r="T187" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U187" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="188" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -21984,10 +21984,10 @@
         <v>23</v>
       </c>
       <c r="T188" s="13" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="U188" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="189" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22114,10 +22114,10 @@
         <v>23</v>
       </c>
       <c r="T190" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U190" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="191" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22244,10 +22244,10 @@
         <v>23</v>
       </c>
       <c r="T192" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U192" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="193" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22309,10 +22309,10 @@
         <v>23</v>
       </c>
       <c r="T193" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U193" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="194" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22323,7 +22323,7 @@
         <v>40</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D194" s="13" t="s">
         <v>22</v>
@@ -22374,10 +22374,10 @@
         <v>23</v>
       </c>
       <c r="T194" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U194" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="195" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22439,10 +22439,10 @@
         <v>23</v>
       </c>
       <c r="T195" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U195" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="196" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22504,10 +22504,10 @@
         <v>23</v>
       </c>
       <c r="T196" s="13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="U196" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="197" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22518,7 +22518,7 @@
         <v>46</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D197" s="13" t="s">
         <v>22</v>
@@ -22569,10 +22569,10 @@
         <v>22</v>
       </c>
       <c r="T197" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U197" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="198" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22634,10 +22634,10 @@
         <v>23</v>
       </c>
       <c r="T198" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U198" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="199" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22699,15 +22699,15 @@
         <v>22</v>
       </c>
       <c r="T199" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U199" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="200" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B200" s="13" t="s">
         <v>40</v>
@@ -22829,10 +22829,10 @@
         <v>22</v>
       </c>
       <c r="T201" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U201" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="202" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22894,10 +22894,10 @@
         <v>23</v>
       </c>
       <c r="T202" s="13" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="U202" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="203" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -22959,10 +22959,10 @@
         <v>22</v>
       </c>
       <c r="T203" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U203" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="204" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23024,10 +23024,10 @@
         <v>23</v>
       </c>
       <c r="T204" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U204" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="205" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23089,10 +23089,10 @@
         <v>23</v>
       </c>
       <c r="T205" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U205" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="206" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23233,7 +23233,7 @@
         <v>40</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D208" s="13" t="s">
         <v>22</v>
@@ -23284,10 +23284,10 @@
         <v>23</v>
       </c>
       <c r="T208" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U208" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="209" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23349,10 +23349,10 @@
         <v>23</v>
       </c>
       <c r="T209" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U209" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="210" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23414,15 +23414,15 @@
         <v>22</v>
       </c>
       <c r="T210" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U210" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="211" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B211" s="13" t="s">
         <v>40</v>
@@ -23544,10 +23544,10 @@
         <v>23</v>
       </c>
       <c r="T212" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U212" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="213" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23674,10 +23674,10 @@
         <v>22</v>
       </c>
       <c r="T214" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U214" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="215" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23739,10 +23739,10 @@
         <v>22</v>
       </c>
       <c r="T215" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U215" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="216" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23804,10 +23804,10 @@
         <v>23</v>
       </c>
       <c r="T216" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U216" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="217" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23869,10 +23869,10 @@
         <v>23</v>
       </c>
       <c r="T217" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U217" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="218" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23934,15 +23934,15 @@
         <v>23</v>
       </c>
       <c r="T218" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U218" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="219" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B219" s="13" t="s">
         <v>40</v>
@@ -24064,10 +24064,10 @@
         <v>23</v>
       </c>
       <c r="T220" s="13" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="U220" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="221" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24078,7 +24078,7 @@
         <v>40</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D221" s="13" t="s">
         <v>22</v>
@@ -24129,10 +24129,10 @@
         <v>23</v>
       </c>
       <c r="T221" s="13" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="U221" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="222" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24194,15 +24194,15 @@
         <v>23</v>
       </c>
       <c r="T222" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U222" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="223" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B223" s="13" t="s">
         <v>40</v>
@@ -24324,10 +24324,10 @@
         <v>22</v>
       </c>
       <c r="T224" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U224" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="225" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24389,10 +24389,10 @@
         <v>22</v>
       </c>
       <c r="T225" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U225" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="226" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24468,7 +24468,7 @@
         <v>40</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D227" s="13" t="s">
         <v>22</v>
@@ -24519,10 +24519,10 @@
         <v>22</v>
       </c>
       <c r="T227" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U227" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="228" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24584,10 +24584,10 @@
         <v>23</v>
       </c>
       <c r="T228" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U228" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="229" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24649,10 +24649,10 @@
         <v>23</v>
       </c>
       <c r="T229" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U229" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="230" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24779,10 +24779,10 @@
         <v>23</v>
       </c>
       <c r="T231" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U231" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="232" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24793,7 +24793,7 @@
         <v>46</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D232" s="13" t="s">
         <v>22</v>
@@ -24844,10 +24844,10 @@
         <v>22</v>
       </c>
       <c r="T232" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U232" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="233" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24858,7 +24858,7 @@
         <v>40</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D233" s="13" t="s">
         <v>23</v>
@@ -24909,10 +24909,10 @@
         <v>23</v>
       </c>
       <c r="T233" s="13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="U233" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="234" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -24923,7 +24923,7 @@
         <v>40</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D234" s="13" t="s">
         <v>22</v>
@@ -24974,10 +24974,10 @@
         <v>23</v>
       </c>
       <c r="T234" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U234" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="235" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25039,10 +25039,10 @@
         <v>22</v>
       </c>
       <c r="T235" s="13" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="U235" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="236" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25104,10 +25104,10 @@
         <v>23</v>
       </c>
       <c r="T236" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U236" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="237" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25118,7 +25118,7 @@
         <v>46</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D237" s="13" t="s">
         <v>22</v>
@@ -25169,10 +25169,10 @@
         <v>22</v>
       </c>
       <c r="T237" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U237" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="238" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25234,10 +25234,10 @@
         <v>22</v>
       </c>
       <c r="T238" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U238" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="239" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25429,10 +25429,10 @@
         <v>22</v>
       </c>
       <c r="T241" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U241" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="242" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25470,7 +25470,7 @@
         <v>23</v>
       </c>
       <c r="L242" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M242" s="12">
         <v>132</v>
@@ -25494,10 +25494,10 @@
         <v>22</v>
       </c>
       <c r="T242" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U242" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="243" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25508,7 +25508,7 @@
         <v>40</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D243" s="13" t="s">
         <v>22</v>
@@ -25559,10 +25559,10 @@
         <v>22</v>
       </c>
       <c r="T243" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U243" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="244" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25624,10 +25624,10 @@
         <v>23</v>
       </c>
       <c r="T244" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U244" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="245" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25689,10 +25689,10 @@
         <v>23</v>
       </c>
       <c r="T245" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U245" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="246" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25819,10 +25819,10 @@
         <v>23</v>
       </c>
       <c r="T247" s="13" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="U247" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="248" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25833,7 +25833,7 @@
         <v>25</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D248" s="13" t="s">
         <v>23</v>
@@ -25884,10 +25884,10 @@
         <v>23</v>
       </c>
       <c r="T248" s="13" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="U248" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="249" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -25898,7 +25898,7 @@
         <v>46</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D249" s="13" t="s">
         <v>22</v>
@@ -25949,10 +25949,10 @@
         <v>22</v>
       </c>
       <c r="T249" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U249" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="250" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26014,10 +26014,10 @@
         <v>23</v>
       </c>
       <c r="T250" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U250" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="251" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26079,10 +26079,10 @@
         <v>23</v>
       </c>
       <c r="T251" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U251" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="252" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26144,10 +26144,10 @@
         <v>22</v>
       </c>
       <c r="T252" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U252" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="253" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26209,10 +26209,10 @@
         <v>23</v>
       </c>
       <c r="T253" s="13" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="U253" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="254" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26274,10 +26274,10 @@
         <v>23</v>
       </c>
       <c r="T254" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U254" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="255" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26339,10 +26339,10 @@
         <v>22</v>
       </c>
       <c r="T255" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U255" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="256" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26353,7 +26353,7 @@
         <v>46</v>
       </c>
       <c r="C256" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D256" s="13" t="s">
         <v>22</v>
@@ -26418,7 +26418,7 @@
         <v>40</v>
       </c>
       <c r="C257" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D257" s="13" t="s">
         <v>22</v>
@@ -26469,10 +26469,10 @@
         <v>23</v>
       </c>
       <c r="T257" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U257" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="258" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26483,7 +26483,7 @@
         <v>40</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D258" s="13" t="s">
         <v>22</v>
@@ -26534,10 +26534,10 @@
         <v>23</v>
       </c>
       <c r="T258" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U258" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="259" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26563,7 +26563,7 @@
         <v>246</v>
       </c>
       <c r="H259" s="13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I259" s="13" t="s">
         <v>24</v>
@@ -26599,10 +26599,10 @@
         <v>23</v>
       </c>
       <c r="T259" s="13" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="U259" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="260" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -26702,28 +26702,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Modified0 xmlns="4233fc49-3339-4531-8895-cee7bd229291" xsi:nil="true"/>
-    <Priority xmlns="4233fc49-3339-4531-8895-cee7bd229291" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4233fc49-3339-4531-8895-cee7bd229291">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c93905bf-b08c-430b-8630-76f4d352397a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E4DDA97709D05344805E34443243448B" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9eeeb8ecc7e5384bf1028f09b4198e68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4233fc49-3339-4531-8895-cee7bd229291" xmlns:ns3="c93905bf-b08c-430b-8630-76f4d352397a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="24c3c3abd9978446371d5fdb96159abb" ns2:_="" ns3:_="">
     <xsd:import namespace="4233fc49-3339-4531-8895-cee7bd229291"/>
@@ -26955,10 +26933,43 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Modified0 xmlns="4233fc49-3339-4531-8895-cee7bd229291" xsi:nil="true"/>
+    <Priority xmlns="4233fc49-3339-4531-8895-cee7bd229291" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4233fc49-3339-4531-8895-cee7bd229291">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c93905bf-b08c-430b-8630-76f4d352397a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3476B37D-24B7-40F9-8338-58433094CF06}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25F84039-4A4A-445F-B1BB-35648527A0E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4233fc49-3339-4531-8895-cee7bd229291"/>
+    <ds:schemaRef ds:uri="c93905bf-b08c-430b-8630-76f4d352397a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26981,20 +26992,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25F84039-4A4A-445F-B1BB-35648527A0E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3476B37D-24B7-40F9-8338-58433094CF06}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4233fc49-3339-4531-8895-cee7bd229291"/>
-    <ds:schemaRef ds:uri="c93905bf-b08c-430b-8630-76f4d352397a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>